--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Document\project\01_GitHub\06_Plz_Take_care_of_My_Refrigerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F6F89D-B5DF-4FA5-86A5-88AC55414DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8AA336-E2DF-478C-902C-F9BA1D17D2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50140" yWindow="4230" windowWidth="16200" windowHeight="14900" xr2:uid="{958269B8-2A52-4794-8B3D-464A21221AA4}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{958269B8-2A52-4794-8B3D-464A21221AA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WBS" sheetId="1" r:id="rId1"/>
+    <sheet name="테스트 내용" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="122">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능 정의서 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정책 정의서 장석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>API 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,11 +213,6 @@
   </si>
   <si>
     <t>화면 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실제 이용자가 이용하는 화면을 설계
-디자이너, 퍼블리셔, 개발자가 내용을 보고 구현 작업을 할 수 있도록 화면 정의서를 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,6 +247,277 @@
   </si>
   <si>
     <t>https://proto.io/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공미희</t>
+  </si>
+  <si>
+    <t>공미희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.07.31.</t>
+  </si>
+  <si>
+    <t>2024.07.31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이어프레임 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들어질 화면에 대한 틀 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 명세서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보이는 화면에 대한 기능들 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 및 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.07.29.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.08.02.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.07.30.</t>
+  </si>
+  <si>
+    <t>2024.07.30.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉장고 문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭할 때 문이 열리거나 닫히는지 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이모지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이모지 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"보유 중"화면일 경우 푸른 색 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부재료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤</t>
+  </si>
+  <si>
+    <t>스크롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>container를 넘어가는 경우 스크롤</t>
+  </si>
+  <si>
+    <t>container를 넘어가는 경우 스크롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채 및 과일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 시 아이템 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제버튼 클릭 시 아이템 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주재료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"레시피"화면일 경우 푸른 색 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"레시피 생성"버튼을 클릭 시 생성 AI 호출 및 응답 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 AI 호출 후 응답을 받는 동안 "답변 중" 표시 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성AI 프롬프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 미입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 정상 입력 시 3가지 레시피 추천 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 명시 요청 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오타 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desktop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 이용자가 이용하는 화면을 설계
+디자이너, 퍼블리셔, 개발자가 내용을 보고 구현 작업할 수 있도록 화면 정의서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.08.04.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desktop화면에서 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile화면에서 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pad화면에서 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성AI API 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성AI 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성AI 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연동된 생성AI를 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연동된 생성AI를 호출시 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 전환을 위한 탭 기능 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 / 카테고리(부재료/야채 및 과일/냉장/냉동) 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 / 카테고리(주재료/레시피 생성) 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹사이트 배포</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,8 +593,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -651,6 +916,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -660,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +1048,144 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,98 +1195,53 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1087,25 +1558,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADACCCB8-0ADB-4200-A097-9BD4AB4DC274}">
-  <dimension ref="B2:O52"/>
+  <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="3.6875" customWidth="1"/>
-    <col min="2" max="2" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.8125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.9375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="4.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="3.875" customWidth="1"/>
@@ -1113,927 +1583,3329 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="10" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="3" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="3" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="12"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.6">
+      <c r="B7" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B7" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="B8" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="2:15" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="B8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="14"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="14"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="14"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="15"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="15"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="15"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="15"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="15"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
-        <v>29</v>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="15"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
-        <v>30</v>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="15"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
-        <v>30</v>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="15"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
-        <v>30</v>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="15"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
-        <v>31</v>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="15"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B21" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="15"/>
+      <c r="O21" s="8"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="B22" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="15"/>
+      <c r="O22" s="8"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
-        <v>33</v>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="15"/>
-    </row>
-    <row r="24" spans="2:15" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="B24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.6">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="15"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="2:15" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="B25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="15"/>
+      <c r="O25" s="8"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
-        <v>36</v>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="15"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="15"/>
-    </row>
-    <row r="28" spans="2:15" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="B28" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.6">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="15"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="2:15" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="B29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="15"/>
+      <c r="O29" s="8"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
-        <v>32</v>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="E30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="25"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="15"/>
+      <c r="O30" s="8"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="15"/>
+      <c r="O31" s="8"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="15"/>
+      <c r="O32" s="8"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="15"/>
+      <c r="O33" s="8"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="15"/>
+      <c r="O34" s="8"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B35" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="26"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="25"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="15"/>
+      <c r="O35" s="8"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="25"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="15"/>
+      <c r="O36" s="8"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="25"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="15"/>
+      <c r="O37" s="8"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
-        <v>37</v>
-      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="15"/>
+      <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B39" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="26"/>
+      <c r="B39" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="40"/>
       <c r="D39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="15"/>
+      <c r="O39" s="8"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
-        <v>41</v>
+      <c r="B40" s="37"/>
+      <c r="C40" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="E40" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="15"/>
+      <c r="O40" s="8"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="E41" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="15"/>
+      <c r="O41" s="8"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="E42" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="15"/>
+      <c r="O42" s="8"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="E43" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="15"/>
+      <c r="O43" s="8"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="15"/>
+      <c r="O44" s="8"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="15"/>
+      <c r="O45" s="8"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="15"/>
+      <c r="O46" s="8"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="B47" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="15"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="15"/>
-    </row>
-    <row r="49" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="17"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="D51" s="36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="D52" s="36" t="s">
-        <v>55</v>
+      <c r="O47" s="8"/>
+    </row>
+    <row r="48" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B48" s="15"/>
+      <c r="C48" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="38"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.6">
+      <c r="D50" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.6">
+      <c r="D51" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B3:H4"/>
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:O4"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D51" r:id="rId1" xr:uid="{286EC303-938C-4C10-A86C-E7862C0B9A1B}"/>
-    <hyperlink ref="D52" r:id="rId2" xr:uid="{B414C9A8-51DE-479C-BE81-0ECD625B43A7}"/>
+    <hyperlink ref="D50" r:id="rId1" xr:uid="{286EC303-938C-4C10-A86C-E7862C0B9A1B}"/>
+    <hyperlink ref="D51" r:id="rId2" xr:uid="{B414C9A8-51DE-479C-BE81-0ECD625B43A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A39BF2A-795A-45A8-8F54-B37C3C9698E8}">
+  <dimension ref="B2:Q69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="3.1875" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="5.0625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="52"/>
+    </row>
+    <row r="5" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B7" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B9" s="63"/>
+      <c r="C9" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B10" s="63"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="29"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B11" s="63"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="29"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B12" s="63"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="29"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B13" s="63"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B14" s="63"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="29"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B15" s="63"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="29"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B16" s="63"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="29"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B17" s="63"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="29"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B18" s="63"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="29"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B19" s="63"/>
+      <c r="C19" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="29"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B20" s="63"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="29"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B21" s="63"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="29"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B22" s="63"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="29"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B23" s="63"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="29"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B24" s="63"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="29"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B25" s="63"/>
+      <c r="C25" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B26" s="63"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B27" s="64"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B28" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="33"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="36"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B29" s="63"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="29"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B30" s="63"/>
+      <c r="C30" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="29"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B31" s="63"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="29"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B32" s="63"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="29"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B33" s="63"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="29"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B34" s="63"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="29"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B35" s="63"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="29"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B36" s="63"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="29"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B37" s="63"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="29"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B38" s="63"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="29"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B39" s="63"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="29"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B40" s="63"/>
+      <c r="C40" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="29"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B41" s="63"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="29"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B42" s="63"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="29"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B43" s="63"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="29"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B44" s="63"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="29"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B45" s="63"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="29"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B46" s="63"/>
+      <c r="C46" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="8"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B47" s="63"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="8"/>
+    </row>
+    <row r="48" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B48" s="64"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B49" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="36"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B50" s="63"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="29"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B51" s="63"/>
+      <c r="C51" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="29"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B52" s="63"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="29"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B53" s="63"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="29"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B54" s="63"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="29"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B55" s="63"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="29"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B56" s="63"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="29"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B57" s="63"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="29"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B58" s="63"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="29"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B59" s="63"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="29"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B60" s="63"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="29"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B61" s="63"/>
+      <c r="C61" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="29"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B62" s="63"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="29"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B63" s="63"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J63" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="29"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B64" s="63"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="29"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B65" s="63"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J65" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="29"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B66" s="63"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="29"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B67" s="63"/>
+      <c r="C67" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J67" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="8"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.6">
+      <c r="B68" s="63"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J68" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="8"/>
+    </row>
+    <row r="69" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B69" s="64"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B7:B27"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C9:C18"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B49:B69"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C51:C60"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="B28:B48"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Document\project\01_GitHub\06_Plz_Take_care_of_My_Refrigerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8AA336-E2DF-478C-902C-F9BA1D17D2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A11C401-9FBA-45EA-B334-229265B5D900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{958269B8-2A52-4794-8B3D-464A21221AA4}"/>
+    <workbookView xWindow="51560" yWindow="0" windowWidth="15730" windowHeight="20970" xr2:uid="{958269B8-2A52-4794-8B3D-464A21221AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -1156,6 +1156,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,9 +1201,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1219,28 +1219,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1560,11 +1560,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADACCCB8-0ADB-4200-A097-9BD4AB4DC274}">
   <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:O2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1583,62 +1583,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="47" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="49" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="49" t="s">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="52"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B5" s="18" t="s">
@@ -1685,10 +1685,10 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
@@ -1707,10 +1707,10 @@
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
@@ -1729,10 +1729,10 @@
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="2:15" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="17" t="s">
         <v>106</v>
       </c>
@@ -1757,10 +1757,10 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="4"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -2019,10 +2019,10 @@
       <c r="O21" s="8"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="1" t="s">
         <v>45</v>
       </c>
@@ -2081,10 +2081,10 @@
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="40"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="20" t="s">
         <v>47</v>
       </c>
@@ -2163,10 +2163,10 @@
       <c r="O28" s="8"/>
     </row>
     <row r="29" spans="2:15" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="40"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="20" t="s">
         <v>48</v>
       </c>
@@ -2425,10 +2425,10 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="40"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="1" t="s">
         <v>49</v>
       </c>
@@ -2631,10 +2631,10 @@
       <c r="O46" s="8"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.6">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="40"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="1" t="s">
         <v>50</v>
       </c>
@@ -2718,7 +2718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A39BF2A-795A-45A8-8F54-B37C3C9698E8}">
   <dimension ref="B2:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
@@ -2736,68 +2736,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.6">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="47" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.6">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="49" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="49" t="s">
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="52"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B5" s="18" t="s">
@@ -2850,10 +2850,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2872,7 +2872,7 @@
       <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.6">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="62" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="56" t="s">
@@ -3503,8 +3503,8 @@
     </row>
     <row r="27" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B27" s="64"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="9" t="s">
         <v>99</v>
       </c>
@@ -3532,13 +3532,13 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.6">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="67" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="33" t="s">
@@ -4163,8 +4163,8 @@
     </row>
     <row r="48" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B48" s="64"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="60"/>
       <c r="E48" s="9" t="s">
         <v>99</v>
       </c>
@@ -4192,13 +4192,13 @@
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.6">
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="67" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="33" t="s">
@@ -4823,8 +4823,8 @@
     </row>
     <row r="69" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B69" s="64"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="60"/>
       <c r="E69" s="9" t="s">
         <v>99</v>
       </c>
@@ -4853,37 +4853,10 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B7:B27"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C9:C18"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="D67:D69"/>
     <mergeCell ref="C46:C48"/>
@@ -4900,10 +4873,37 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B7:B27"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C9:C18"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
